--- a/boards/sae_robot/carte commande septembre 2022/Carte_uC_v6 (Bill Of Materials)_grand.xlsx
+++ b/boards/sae_robot/carte commande septembre 2022/Carte_uC_v6 (Bill Of Materials)_grand.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\designSpark\boards\sae_robot\carte commande septembre 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF98180E-EFC8-4CD6-B781-3843990FB000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B3B68-34CD-41E1-AE2C-CBDCCB79EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carte_uC_v6 (Bill Of Materials)" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>820-1447</t>
-  </si>
-  <si>
     <t>711-1573</t>
   </si>
   <si>
@@ -328,12 +325,15 @@
   </si>
   <si>
     <t>204-7577</t>
+  </si>
+  <si>
+    <t>820-1563</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -394,11 +394,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -814,7 +815,7 @@
         <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -825,17 +826,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -849,17 +850,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -873,17 +874,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1">
         <v>4</v>
@@ -897,20 +898,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -928,10 +929,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -952,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -969,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -978,10 +979,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -1002,10 +1003,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1026,10 +1027,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1053,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1">
         <v>30</v>
@@ -1061,25 +1062,25 @@
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1093,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -1168,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
@@ -1253,7 +1254,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -1274,10 +1275,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1298,10 +1299,10 @@
         <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -1322,10 +1323,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
